--- a/Documents/Relatório-Aulas.xlsx
+++ b/Documents/Relatório-Aulas.xlsx
@@ -1,86 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Quintino Jr\Desktop\Emanuel\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Quintino Jr\Desktop\Emanuel\WebDevelopmentCourse\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845F413D-D46F-4F40-87C0-A6C1DBFF856C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AB37B-F1B2-4C68-9E9E-C1EC5A70A110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{995F581C-845C-4AE3-B1AD-69BAD3AFB52F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>CONTEÚDO</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abertura do curso, boas vindas da liderança aos alunos, considerações do que é o Projeto, fotos e apresentação do professor e do PPC do curso </t>
+  </si>
+  <si>
+    <t>Brinde de camisa e caneca</t>
+  </si>
+  <si>
     <t>Modulo de Inglês Instrumental com Gramática e Vocabulário da apostila (termos dos dispositivos), como estudar com frases prontas e "sentimento" com PNL</t>
   </si>
   <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>CONTEÚDO</t>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
-    <t>Brinde de camisa e caneca</t>
-  </si>
-  <si>
     <t>Apostila, PDF com frases, diagrama de pronomes e preposições</t>
   </si>
   <si>
+    <t>Abri explicando a curva de esquecimento e retenção de Ebbinghaus mais leitura e tradução de texto, e a importância de estudar com textos</t>
+  </si>
+  <si>
     <t>PDF do Texto e diagrama da curva de esquecimento</t>
   </si>
   <si>
+    <t>Revisão do Texto e Atividade relacionada com interpretação, vocabulário e gramática mais correção, diagrama do  sono REM</t>
+  </si>
+  <si>
+    <t>Diagrama sono REM, PDF da atividade</t>
+  </si>
+  <si>
     <t>Bingo com o vocabulário e considerações do final do módulo</t>
   </si>
   <si>
     <t>PDF do vocabulário, cartela e caixa de chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abertura do curso, boas vindas da liderança aos alunos, considerações do que é o Projeto, fotos e apresentação do professor e do PPC do curso </t>
-  </si>
-  <si>
-    <t>Abri explicando a curva de esquecimento e retenção de Ebbinghaus mais leitura e tradução de texto, e a importância de estudar com textos</t>
-  </si>
-  <si>
-    <t>Revisão do Texto e Atividade relacionada com interpretação, vocabulário e gramática mais correção, diagrama do  sono REM</t>
-  </si>
-  <si>
-    <t>Diagrama sono REM, PDF da atividade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,10 +76,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +95,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -117,23 +114,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,8 +210,20 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E741973B-16DC-4D89-8A51-56769C171843}" name="Tabela2" displayName="Tabela2" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{E741973B-16DC-4D89-8A51-56769C171843}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F7D1BAC3-D42F-40C9-92D4-B2A53241FCAE}" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{65843973-066C-4A78-9BCC-FA90E195A8EA}" name="CONTEÚDO" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FB9E0355-290A-4D05-BBAD-52A6C90A68E2}" name="MATERIAL" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,20 +257,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -221,31 +298,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -273,23 +333,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -301,228 +344,255 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679C5456-657D-4ABB-AEC5-AAD9F30BED68}">
-  <dimension ref="B2:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>44802</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>44802</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44803</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44804</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>44805</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>44803</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>44804</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>44805</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>44806</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>44806</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>